--- a/works/documents/AWESOME THEME 작업 현황.xlsx
+++ b/works/documents/AWESOME THEME 작업 현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwshin/Projects/sshinbaymax/es_theme_awesome_sshinbaymax/works/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E638F02-FE12-5D49-B20D-E875AD5218AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E91544-6D6F-CC41-B68D-9F5E07D7B7E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="500" windowWidth="32800" windowHeight="22220" activeTab="1" xr2:uid="{FB7E6591-5928-3E4C-B058-0601E6AE9D25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="391">
   <si>
     <t>amiga</t>
   </si>
@@ -872,9 +872,6 @@
   </si>
   <si>
     <t>midway</t>
-  </si>
-  <si>
-    <t>odyssey2.png</t>
   </si>
   <si>
     <t>pico-8.png</t>
@@ -1345,6 +1342,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>snes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cpet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1370,6 +1371,29 @@
   </si>
   <si>
     <t>cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vbam_libretro</t>
+  </si>
+  <si>
+    <t>arcadia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arcadia-2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odyssey2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odyssey2.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,7 +1401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1586,6 +1610,18 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1696,7 +1732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1954,6 +1990,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2277,10 +2319,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5B34E-A64D-5A47-BF09-23DAF048CB56}">
   <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
+      <selection pane="bottomLeft" activeCell="P177" sqref="P177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1"/>
@@ -2307,29 +2349,29 @@
         <v>147</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="F1" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="I1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="46" t="s">
-        <v>309</v>
-      </c>
       <c r="K1" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>148</v>
@@ -2548,13 +2590,13 @@
         <v>168</v>
       </c>
       <c r="N8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O8" s="24" t="s">
         <v>262</v>
       </c>
       <c r="P8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1" ht="25" customHeight="1">
@@ -2581,7 +2623,7 @@
         <v>129</v>
       </c>
       <c r="O9" s="70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P9" t="s">
         <v>129</v>
@@ -2610,7 +2652,7 @@
         <v>145</v>
       </c>
       <c r="N10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O10" s="24" t="s">
         <v>262</v>
@@ -2773,36 +2815,36 @@
         <v>116</v>
       </c>
       <c r="O16" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" ht="25" customHeight="1">
       <c r="C17" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
       <c r="I17" s="59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J17" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K17" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17"/>
@@ -2891,7 +2933,7 @@
     </row>
     <row r="22" spans="1:16" ht="25" hidden="1" customHeight="1">
       <c r="C22" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>120</v>
@@ -3347,7 +3389,7 @@
         <v>126</v>
       </c>
       <c r="O43" s="58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P43" t="s">
         <v>75</v>
@@ -3355,80 +3397,80 @@
     </row>
     <row r="44" spans="1:16" ht="25" customHeight="1">
       <c r="C44" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E44" s="53"/>
       <c r="F44" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G44" s="53"/>
       <c r="H44" s="53"/>
       <c r="I44" s="53"/>
       <c r="J44" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L44" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N44"/>
       <c r="P44"/>
     </row>
     <row r="45" spans="1:16" ht="25" customHeight="1">
       <c r="C45" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G45" s="53"/>
       <c r="H45" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I45" s="53"/>
       <c r="J45" s="53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K45" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N45"/>
       <c r="P45"/>
     </row>
     <row r="46" spans="1:16" ht="25" customHeight="1">
       <c r="C46" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E46" s="53"/>
       <c r="F46" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
       <c r="I46" s="53"/>
       <c r="J46" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K46" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O46" s="2"/>
     </row>
@@ -3497,10 +3539,10 @@
     </row>
     <row r="49" spans="1:16" ht="25" customHeight="1">
       <c r="C49" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E49" s="53"/>
       <c r="F49" s="53"/>
@@ -3510,17 +3552,17 @@
       <c r="J49" s="53"/>
       <c r="K49" s="42"/>
       <c r="L49" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N49"/>
       <c r="P49"/>
     </row>
     <row r="50" spans="1:16" ht="25" customHeight="1">
       <c r="C50" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
@@ -3530,7 +3572,7 @@
       <c r="J50" s="53"/>
       <c r="K50" s="42"/>
       <c r="L50" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N50"/>
       <c r="P50"/>
@@ -3615,10 +3657,10 @@
     </row>
     <row r="54" spans="1:16" ht="25" customHeight="1">
       <c r="C54" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="53"/>
@@ -3628,7 +3670,7 @@
       <c r="J54" s="53"/>
       <c r="K54" s="42"/>
       <c r="L54" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N54"/>
       <c r="P54"/>
@@ -3684,34 +3726,34 @@
     </row>
     <row r="57" spans="1:16" ht="25" customHeight="1">
       <c r="C57" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F57" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G57" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H57" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I57" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J57" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K57" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N57"/>
       <c r="O57" s="20"/>
@@ -3762,32 +3804,32 @@
     </row>
     <row r="60" spans="1:16" ht="25" customHeight="1">
       <c r="C60" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D60" s="32"/>
       <c r="E60" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F60" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G60" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H60" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I60" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J60" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K60" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L60" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M60" s="19"/>
       <c r="N60"/>
@@ -3796,10 +3838,10 @@
     </row>
     <row r="61" spans="1:16" ht="25" customHeight="1">
       <c r="C61" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E61" s="53"/>
       <c r="F61" s="53"/>
@@ -3809,7 +3851,7 @@
       <c r="J61" s="53"/>
       <c r="K61" s="42"/>
       <c r="L61" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M61" s="19"/>
       <c r="N61"/>
@@ -4434,10 +4476,10 @@
     </row>
     <row r="87" spans="1:16" ht="25" customHeight="1">
       <c r="C87" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E87" s="53"/>
       <c r="F87" s="53"/>
@@ -4447,7 +4489,7 @@
       <c r="J87" s="53"/>
       <c r="K87" s="42"/>
       <c r="L87" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87"/>
@@ -4527,32 +4569,32 @@
     </row>
     <row r="91" spans="1:16" ht="25" customHeight="1">
       <c r="C91" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E91" s="59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F91" s="56"/>
       <c r="G91" s="59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H91" s="59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I91" s="59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J91" s="59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K91" s="59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L91" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M91" s="4"/>
       <c r="N91" s="25"/>
@@ -4636,7 +4678,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L95" s="12" t="s">
         <v>95</v>
@@ -4653,10 +4695,10 @@
     </row>
     <row r="96" spans="1:16" ht="25" customHeight="1">
       <c r="C96" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E96" s="56"/>
       <c r="F96" s="56"/>
@@ -4666,7 +4708,7 @@
       <c r="J96" s="56"/>
       <c r="K96" s="44"/>
       <c r="L96" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M96" s="4"/>
       <c r="O96" s="20"/>
@@ -4674,10 +4716,10 @@
     </row>
     <row r="97" spans="1:16" ht="25" customHeight="1">
       <c r="C97" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E97" s="56"/>
       <c r="F97" s="56"/>
@@ -4687,7 +4729,7 @@
       <c r="J97" s="56"/>
       <c r="K97" s="44"/>
       <c r="L97" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M97" s="4"/>
       <c r="O97" s="20"/>
@@ -4802,7 +4844,7 @@
     </row>
     <row r="103" spans="1:16" ht="25" hidden="1" customHeight="1">
       <c r="C103" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L103" s="10" t="s">
         <v>138</v>
@@ -4952,34 +4994,34 @@
     </row>
     <row r="109" spans="1:16" ht="25" customHeight="1">
       <c r="C109" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D109" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E109" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F109" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G109" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H109" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I109" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J109" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K109" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L109" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N109"/>
       <c r="P109"/>
@@ -5035,10 +5077,10 @@
     </row>
     <row r="112" spans="1:16" ht="25" customHeight="1">
       <c r="C112" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E112" s="56"/>
       <c r="F112" s="56"/>
@@ -5048,7 +5090,7 @@
       <c r="J112" s="56"/>
       <c r="K112" s="44"/>
       <c r="L112" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N112"/>
       <c r="P112"/>
@@ -5253,10 +5295,10 @@
     </row>
     <row r="121" spans="1:16" ht="25" customHeight="1">
       <c r="C121" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E121" s="56"/>
       <c r="F121" s="56"/>
@@ -5266,7 +5308,7 @@
       <c r="J121" s="56"/>
       <c r="K121" s="44"/>
       <c r="L121" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N121"/>
       <c r="O121" s="20"/>
@@ -6041,10 +6083,10 @@
     </row>
     <row r="155" spans="1:16" ht="25" customHeight="1">
       <c r="C155" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E155" s="56"/>
       <c r="F155" s="56"/>
@@ -6054,7 +6096,7 @@
       <c r="J155" s="56"/>
       <c r="K155" s="44"/>
       <c r="L155" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N155"/>
       <c r="O155" s="20"/>
@@ -6062,10 +6104,10 @@
     </row>
     <row r="156" spans="1:16" ht="25" customHeight="1">
       <c r="C156" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E156" s="56"/>
       <c r="F156" s="56"/>
@@ -6075,7 +6117,7 @@
       <c r="J156" s="56"/>
       <c r="K156" s="44"/>
       <c r="L156" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N156"/>
       <c r="O156" s="20"/>
@@ -6201,10 +6243,10 @@
     </row>
     <row r="162" spans="1:16" ht="25" customHeight="1">
       <c r="C162" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E162" s="56"/>
       <c r="F162" s="56"/>
@@ -6214,7 +6256,7 @@
       <c r="J162" s="56"/>
       <c r="K162" s="44"/>
       <c r="L162" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M162" s="4"/>
       <c r="N162"/>
@@ -6235,7 +6277,7 @@
         <v>80</v>
       </c>
       <c r="N163" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O163" s="20" t="s">
         <v>265</v>
@@ -6272,10 +6314,10 @@
     </row>
     <row r="165" spans="1:16" ht="25" customHeight="1">
       <c r="C165" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E165" s="56"/>
       <c r="F165" s="56"/>
@@ -6285,7 +6327,7 @@
       <c r="J165" s="56"/>
       <c r="K165" s="44"/>
       <c r="L165" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N165"/>
       <c r="O165" s="20"/>
@@ -6305,7 +6347,7 @@
         <v>85</v>
       </c>
       <c r="N166" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O166" s="20" t="s">
         <v>264</v>
@@ -6316,10 +6358,10 @@
     </row>
     <row r="167" spans="1:16" ht="25" customHeight="1">
       <c r="C167" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E167" s="56"/>
       <c r="F167" s="56"/>
@@ -6329,7 +6371,7 @@
       <c r="J167" s="56"/>
       <c r="K167" s="44"/>
       <c r="L167" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M167" s="4"/>
       <c r="N167" s="26"/>
@@ -6376,7 +6418,7 @@
         <v>90</v>
       </c>
       <c r="N169" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O169" s="20" t="s">
         <v>265</v>
@@ -6387,10 +6429,10 @@
     </row>
     <row r="170" spans="1:16" ht="25" customHeight="1">
       <c r="C170" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E170" s="56"/>
       <c r="F170" s="56"/>
@@ -6400,7 +6442,7 @@
       <c r="J170" s="56"/>
       <c r="K170" s="44"/>
       <c r="L170" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M170" s="4"/>
       <c r="N170" s="26"/>
@@ -6421,7 +6463,7 @@
         <v>105</v>
       </c>
       <c r="N171" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O171" s="20" t="s">
         <v>265</v>
@@ -6461,7 +6503,7 @@
         <v>92</v>
       </c>
       <c r="J173" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L173" s="13" t="s">
         <v>92</v>
@@ -6565,7 +6607,7 @@
         <v>23</v>
       </c>
       <c r="P177" t="s">
-        <v>270</v>
+        <v>390</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="25" customHeight="1">
@@ -6622,7 +6664,7 @@
         <v>112</v>
       </c>
       <c r="N180" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O180" s="20" t="s">
         <v>265</v>
@@ -6671,7 +6713,7 @@
     </row>
     <row r="185" spans="1:16" ht="25" customHeight="1">
       <c r="P185" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="25" customHeight="1">
@@ -6801,7 +6843,7 @@
     </row>
     <row r="212" spans="16:16" ht="25" customHeight="1">
       <c r="P212" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="16:16" ht="25" customHeight="1">
@@ -6946,10 +6988,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699FF3A8-C58D-5A43-8652-F4BB1DF0F562}">
-  <dimension ref="B1:P26"/>
+  <dimension ref="B1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -6966,193 +7009,193 @@
     <row r="1" spans="2:16" ht="15" customHeight="1"/>
     <row r="2" spans="2:16" ht="30" customHeight="1">
       <c r="B2" s="60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>326</v>
-      </c>
       <c r="G2" s="60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H2" s="83" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="L2" s="84" t="s">
         <v>307</v>
       </c>
-      <c r="I2" s="84" t="s">
-        <v>312</v>
-      </c>
-      <c r="J2" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="K2" s="84" t="s">
-        <v>311</v>
-      </c>
-      <c r="L2" s="84" t="s">
+      <c r="M2" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="M2" s="84" t="s">
-        <v>309</v>
-      </c>
       <c r="N2" s="85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="30" customHeight="1">
       <c r="B3" s="79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" s="71"/>
       <c r="D3" s="72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H3" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I3" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J3" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K3" s="74"/>
       <c r="L3" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M3" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N3" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="30" customHeight="1">
       <c r="B4" s="79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H4" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J4" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K4" s="74"/>
       <c r="L4" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M4" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N4" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="30" customHeight="1">
       <c r="B5" s="79" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J5" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K5" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L5" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M5" s="82" t="s">
         <v>381</v>
       </c>
       <c r="N5" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="30" customHeight="1">
       <c r="B6" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F6" s="72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J6" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K6" s="74"/>
       <c r="L6" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M6" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N6" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="30" customHeight="1">
@@ -7161,262 +7204,262 @@
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="75" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H7" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I7" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K7" s="74"/>
       <c r="L7" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M7" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N7" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P7" s="69"/>
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1">
       <c r="B8" s="79" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="74" t="s">
         <v>334</v>
       </c>
-      <c r="E8" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>335</v>
-      </c>
       <c r="G8" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H8" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I8" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K8" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L8" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M8" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N8" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="30" customHeight="1">
       <c r="B9" s="79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F9" s="74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G9" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H9" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I9" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K9" s="74"/>
       <c r="L9" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M9" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N9" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="30" customHeight="1">
       <c r="B10" s="79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" s="73" t="s">
+        <v>339</v>
+      </c>
+      <c r="F10" s="74" t="s">
         <v>340</v>
       </c>
-      <c r="F10" s="74" t="s">
-        <v>341</v>
-      </c>
       <c r="G10" s="78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H10" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I10" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M10" s="82" t="s">
         <v>381</v>
       </c>
       <c r="N10" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="30" customHeight="1">
       <c r="B11" s="79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F11" s="74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H11" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I11" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K11" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L11" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M11" s="82" t="s">
         <v>381</v>
       </c>
       <c r="N11" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="30" customHeight="1">
       <c r="B12" s="79" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="F12" s="74" t="s">
         <v>345</v>
       </c>
-      <c r="F12" s="74" t="s">
-        <v>346</v>
-      </c>
       <c r="G12" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H12" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I12" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K12" s="74"/>
       <c r="L12" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M12" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N12" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="30" customHeight="1">
       <c r="B13" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F13" s="74" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H13" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I13" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J13" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K13" s="74"/>
       <c r="L13" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M13" s="82" t="s">
         <v>381</v>
       </c>
       <c r="N13" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="30" customHeight="1">
@@ -7425,339 +7468,339 @@
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>362</v>
+      </c>
+      <c r="G14" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="E14" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>363</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>352</v>
-      </c>
       <c r="H14" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I14" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K14" s="62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L14" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M14" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N14" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="30" customHeight="1">
       <c r="B15" s="80" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G15" s="81" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H15" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I15" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J15" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K15" s="74"/>
       <c r="L15" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M15" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N15" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="30" customHeight="1">
       <c r="B16" s="79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G16" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H16" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I16" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K16" s="74"/>
       <c r="L16" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M16" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N16" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="30" customHeight="1">
       <c r="B17" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="E17" s="74" t="s">
-        <v>345</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>358</v>
-      </c>
       <c r="G17" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H17" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I17" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J17" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K17" s="74"/>
       <c r="L17" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M17" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N17" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="30" customHeight="1">
       <c r="B18" s="79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="72" t="s">
+        <v>358</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>317</v>
+      </c>
+      <c r="F18" s="74" t="s">
         <v>359</v>
       </c>
-      <c r="E18" s="73" t="s">
-        <v>318</v>
-      </c>
-      <c r="F18" s="74" t="s">
-        <v>360</v>
-      </c>
       <c r="G18" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H18" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I18" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J18" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K18" s="74"/>
       <c r="L18" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M18" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N18" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="30" customHeight="1">
       <c r="B19" s="79" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="F19" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="E19" s="74" t="s">
-        <v>345</v>
-      </c>
-      <c r="F19" s="74" t="s">
-        <v>367</v>
-      </c>
       <c r="G19" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H19" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I19" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J19" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K19" s="74"/>
       <c r="L19" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M19" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N19" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="30" customHeight="1">
       <c r="B20" s="79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F20" s="74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H20" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I20" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J20" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K20" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L20" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M20" s="82" t="s">
         <v>381</v>
       </c>
       <c r="N20" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="30" customHeight="1">
       <c r="B21" s="79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F21" s="74" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H21" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I21" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K21" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L21" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M21" s="82" t="s">
         <v>381</v>
       </c>
       <c r="N21" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="30" customHeight="1">
       <c r="B22" s="79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="75" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H22" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I22" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K22" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L22" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M22" s="82" t="s">
         <v>381</v>
       </c>
       <c r="N22" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="30" customHeight="1">
@@ -7769,143 +7812,179 @@
         <v>379</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F23" s="65"/>
       <c r="G23" s="65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H23" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I23" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J23" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K23" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L23" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M23" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N23" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="30" customHeight="1">
       <c r="B24" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C24" s="63"/>
       <c r="D24" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F24" s="65"/>
       <c r="G24" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H24" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I24" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J24" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K24" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L24" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M24" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N24" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="30" customHeight="1">
       <c r="B25" s="63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C25" s="63"/>
       <c r="D25" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F25" s="68"/>
       <c r="G25" s="64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H25" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I25" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J25" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K25" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L25" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M25" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N25" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="30" customHeight="1">
       <c r="B26" s="63" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C26" s="63"/>
       <c r="D26" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F26" s="67"/>
       <c r="G26" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H26" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I26" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J26" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K26" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L26" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M26" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N26" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="30" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="30" customHeight="1">
+      <c r="B28" s="87" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" s="86" t="s">
+        <v>387</v>
+      </c>
+      <c r="G28" s="76" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="30" customHeight="1">
+      <c r="B29" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -7936,13 +8015,13 @@
         <v>383</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E1" t="s">
         <v>382</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I1" t="s">
         <v>382</v>
@@ -7956,13 +8035,13 @@
         <v>383</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E2" t="s">
         <v>382</v>
       </c>
       <c r="H2" s="79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I2" t="s">
         <v>382</v>
@@ -7976,13 +8055,13 @@
         <v>383</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
         <v>382</v>
       </c>
       <c r="H3" s="79" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I3" t="s">
         <v>382</v>
@@ -7996,13 +8075,13 @@
         <v>383</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E4" t="s">
         <v>382</v>
       </c>
       <c r="H4" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I4" t="s">
         <v>382</v>
@@ -8016,7 +8095,7 @@
         <v>383</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E5" t="s">
         <v>382</v>
@@ -8036,13 +8115,13 @@
         <v>383</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E6" t="s">
         <v>382</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I6" t="s">
         <v>382</v>
@@ -8056,13 +8135,13 @@
         <v>383</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E7" t="s">
         <v>382</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I7" t="s">
         <v>382</v>
@@ -8076,13 +8155,13 @@
         <v>383</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E8" t="s">
         <v>382</v>
       </c>
       <c r="H8" s="79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I8" t="s">
         <v>382</v>
@@ -8096,13 +8175,13 @@
         <v>383</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E9" t="s">
         <v>382</v>
       </c>
       <c r="H9" s="79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I9" t="s">
         <v>382</v>
@@ -8116,13 +8195,13 @@
         <v>383</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E10" t="s">
         <v>382</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I10" t="s">
         <v>382</v>
@@ -8136,13 +8215,13 @@
         <v>383</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E11" t="s">
         <v>382</v>
       </c>
       <c r="H11" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I11" t="s">
         <v>382</v>
@@ -8156,7 +8235,7 @@
         <v>383</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E12" t="s">
         <v>382</v>
@@ -8176,13 +8255,13 @@
         <v>383</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>382</v>
       </c>
       <c r="H13" s="80" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I13" t="s">
         <v>382</v>
@@ -8196,13 +8275,13 @@
         <v>383</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E14" t="s">
         <v>382</v>
       </c>
       <c r="H14" s="79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I14" t="s">
         <v>382</v>
@@ -8216,13 +8295,13 @@
         <v>383</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E15" t="s">
         <v>382</v>
       </c>
       <c r="H15" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I15" t="s">
         <v>382</v>
@@ -8236,13 +8315,13 @@
         <v>383</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E16" t="s">
         <v>382</v>
       </c>
       <c r="H16" s="79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I16" t="s">
         <v>382</v>
@@ -8256,13 +8335,13 @@
         <v>383</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E17" t="s">
         <v>382</v>
       </c>
       <c r="H17" s="79" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I17" t="s">
         <v>382</v>
@@ -8276,13 +8355,13 @@
         <v>383</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E18" t="s">
         <v>382</v>
       </c>
       <c r="H18" s="79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I18" t="s">
         <v>382</v>
@@ -8296,13 +8375,13 @@
         <v>383</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E19" t="s">
         <v>382</v>
       </c>
       <c r="H19" s="79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I19" t="s">
         <v>382</v>
@@ -8316,13 +8395,13 @@
         <v>383</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E20" t="s">
         <v>382</v>
       </c>
       <c r="H20" s="79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I20" t="s">
         <v>382</v>
@@ -8373,7 +8452,7 @@
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="30"/>
       <c r="C35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">
